--- a/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NaveenKhunteta/Documents/MyPOMFramework/PageObjectModel/src/main/java/com/crm/qa/testdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="14990" windowHeight="1380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
     <sheet name="deals" sheetId="2" r:id="rId2"/>
     <sheet name="tasks" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>title</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>firstname</t>
   </si>
@@ -43,40 +32,22 @@
     <t>company</t>
   </si>
   <si>
-    <t>Mr.</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>Dr.</t>
+    <t>Ebay</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Home Depot</t>
+  </si>
+  <si>
+    <t>Marry</t>
   </si>
   <si>
     <t>David</t>
   </si>
   <si>
-    <t>Cris</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>Mrs.</t>
-  </si>
-  <si>
-    <t>Mukta</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>Ebay</t>
+    <t>Ds</t>
   </si>
 </sst>
 </file>
@@ -186,7 +157,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -221,7 +192,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -398,7 +369,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -406,15 +377,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,50 +395,27 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -481,7 +429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -493,7 +441,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
